--- a/reports/corpus_1-unigram_trigram-fold-1.xlsx
+++ b/reports/corpus_1-unigram_trigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>!</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -446,24 +446,24 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>CDA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>CDI</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CDO</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CDP</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CON</t>
@@ -471,155 +471,85 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DRB</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FRB</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NNC</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>VB</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>NNU</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PRP</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>RB</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>RP</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>TRB</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>UH</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>VBI</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>VBK</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBR</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>WDT</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>WPRB</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -632,118 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.96</v>
+        <v>0.99644128113879</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5245901639344263</v>
+        <v>0.6934673366834171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.89375</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.6962025316455697</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02325581395348837</v>
+        <v>0.9984615384615385</v>
       </c>
       <c r="P2" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.5879629629629629</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9850746268656716</v>
+        <v>0.3187250996015936</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.4654088050314465</v>
       </c>
       <c r="T2" t="n">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.174812030075188</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.5935275080906149</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.4495621193961161</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.02150537634408602</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.3538315988647114</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.1929621304130731</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.8818391574924583</v>
+        <v>0.850912061919629</v>
       </c>
     </row>
     <row r="3">
@@ -759,112 +647,70 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.9930555555555556</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9512195121951219</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0.358167770419426</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8888888888888888</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08882907133243607</v>
+        <v>0.5970149253731343</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.9489795918367347</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.5935275080906149</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.8246124781086014</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.3538315988647114</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.5401642360929036</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0.3538315988647114</v>
+        <v>0.5935275080906149</v>
       </c>
     </row>
     <row r="4">
@@ -874,118 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9298245614035088</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9982174688057042</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.962962962962963</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6808510638297871</v>
+        <v>0.8141592920353982</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.9407894736842106</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7796610169491525</v>
+        <v>0.7647058823529412</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="N4" t="n">
-        <v>0.638888888888889</v>
+        <v>0.8208955223880596</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04545454545454545</v>
+        <v>0.5272136474411048</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4571428571428572</v>
+        <v>0.7405247813411079</v>
       </c>
       <c r="R4" t="n">
-        <v>0.162962962962963</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.5896414342629483</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2952380952380953</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.5935275080906149</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>0.5247849349885244</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.4210526315789474</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.3157894736842105</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.4210526315789474</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.04210526315789474</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0.3538315988647114</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0.2271276110686405</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0.3308078606665046</v>
+        <v>0.6112258772413118</v>
       </c>
     </row>
     <row r="5">
@@ -995,118 +799,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>1812</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="Q5" t="n">
+        <v>127</v>
+      </c>
+      <c r="R5" t="n">
+        <v>134</v>
+      </c>
+      <c r="S5" t="n">
+        <v>92</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>98</v>
+      </c>
+      <c r="V5" t="n">
         <v>9</v>
       </c>
-      <c r="R5" t="n">
-        <v>743</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.5935275080906149</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3090</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0.3538315988647114</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1057</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1057</v>
+        <v>3090</v>
       </c>
     </row>
   </sheetData>

--- a/reports/corpus_1-unigram_trigram-fold-1.xlsx
+++ b/reports/corpus_1-unigram_trigram-fold-1.xlsx
@@ -562,76 +562,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.99644128113879</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9285714285714286</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1875</v>
+        <v>0.875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6934673366834171</v>
+        <v>0.9597989949748744</v>
       </c>
       <c r="I2" t="n">
-        <v>0.89375</v>
+        <v>0.975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K2" t="n">
-        <v>0.639344262295082</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3125</v>
+        <v>0.84375</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6962025316455697</v>
+        <v>0.9746835443037974</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9984615384615385</v>
+        <v>0.9923076923076923</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4827586206896552</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5879629629629629</v>
+        <v>0.9398148148148148</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3187250996015936</v>
+        <v>0.7569721115537849</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4654088050314465</v>
+        <v>0.7421383647798742</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="U2" t="n">
-        <v>0.174812030075188</v>
+        <v>0.5733082706766918</v>
       </c>
       <c r="V2" t="n">
-        <v>0.36</v>
+        <v>0.88</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5935275080906149</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X2" t="n">
-        <v>0.4495621193961161</v>
+        <v>0.8019840355471902</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.850912061919629</v>
+        <v>0.8800352540117924</v>
       </c>
     </row>
     <row r="3">
@@ -650,67 +650,67 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9597989949748744</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9930555555555556</v>
+        <v>0.9936305732484076</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9512195121951219</v>
+        <v>0.9719626168224299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.8759124087591241</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0.9871794871794872</v>
       </c>
       <c r="O3" t="n">
-        <v>0.358167770419426</v>
+        <v>0.6190019193857965</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.9841269841269841</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5970149253731343</v>
+        <v>0.7883817427385892</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.8309859154929577</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9489795918367347</v>
+        <v>0.9713375796178344</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5935275080906149</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X3" t="n">
-        <v>0.8246124781086014</v>
+        <v>0.9440504837062074</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5935275080906149</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -720,76 +720,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9982174688057042</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.962962962962963</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8141592920353982</v>
+        <v>0.9597989949748744</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9407894736842106</v>
+        <v>0.9842271293375395</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7647058823529412</v>
+        <v>0.9082969432314411</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2542372881355932</v>
+        <v>0.7164179104477613</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8208955223880596</v>
+        <v>0.980891719745223</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5272136474411048</v>
+        <v>0.7624113475177305</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.8266666666666668</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7405247813411079</v>
+        <v>0.9689737470167064</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4155844155844156</v>
+        <v>0.7723577235772356</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5896414342629483</v>
+        <v>0.7840531561461793</v>
       </c>
       <c r="T4" t="n">
-        <v>0.25</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2952380952380953</v>
+        <v>0.7210401891252955</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.9361702127659575</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5935275080906149</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X4" t="n">
-        <v>0.5247849349885244</v>
+        <v>0.8416966995113117</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6112258772413118</v>
+        <v>0.8345479677838985</v>
       </c>
     </row>
     <row r="5">
@@ -799,70 +799,70 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="I5" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="L5" t="n">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O5" t="n">
-        <v>1812</v>
+        <v>1042</v>
       </c>
       <c r="P5" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="n">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="R5" t="n">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="S5" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
-        <v>98</v>
+        <v>314</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5935275080906149</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="X5" t="n">
         <v>3090</v>
